--- a/Examples/Temperature_calculations.xlsx
+++ b/Examples/Temperature_calculations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
   <si>
     <t>P_kbar_calc</t>
   </si>
@@ -287,6 +287,12 @@
   </si>
   <si>
     <t>Kd_Fe_Mg_IdealWB</t>
+  </si>
+  <si>
+    <t>Mgno_Liq_noFe3</t>
+  </si>
+  <si>
+    <t>Mgno_Liq_Fe2</t>
   </si>
   <si>
     <t>DeltaFeMg_WB</t>
@@ -671,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CU6"/>
+  <dimension ref="A1:CW6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:99">
+    <row r="1" spans="1:101">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,8 +978,14 @@
       <c r="CU1" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:99">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -984,7 +996,7 @@
         <v>1364.712867262135</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>0.0308862310242774</v>
@@ -1251,28 +1263,34 @@
         <v>0.2661048911363535</v>
       </c>
       <c r="CO2">
+        <v>0.5492176786163681</v>
+      </c>
+      <c r="CP2">
+        <v>0.5492176786163681</v>
+      </c>
+      <c r="CQ2">
         <v>0.0420201619883333</v>
       </c>
-      <c r="CP2">
+      <c r="CR2">
         <v>0.2549709601722976</v>
       </c>
-      <c r="CQ2">
+      <c r="CS2">
         <v>0.1199035275390813</v>
       </c>
-      <c r="CR2">
+      <c r="CT2">
         <v>0.7641722680523966</v>
       </c>
-      <c r="CS2">
+      <c r="CU2">
         <v>0.08649631336912542</v>
       </c>
-      <c r="CT2">
+      <c r="CV2">
         <v>0.01243809327092849</v>
       </c>
-      <c r="CU2">
+      <c r="CW2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:99">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1283,7 +1301,7 @@
         <v>1304.755285316458</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E3">
         <v>0.01815336927542577</v>
@@ -1550,28 +1568,34 @@
         <v>0.2617041509186061</v>
       </c>
       <c r="CO3">
+        <v>0.505035660474677</v>
+      </c>
+      <c r="CP3">
+        <v>0.505035660474677</v>
+      </c>
+      <c r="CQ3">
         <v>0.03922598999906582</v>
       </c>
-      <c r="CP3">
+      <c r="CR3">
         <v>0.2406315301949661</v>
       </c>
-      <c r="CQ3">
+      <c r="CS3">
         <v>0.1153414798795298</v>
       </c>
-      <c r="CR3">
+      <c r="CT3">
         <v>0.7799637567469191</v>
       </c>
-      <c r="CS3">
+      <c r="CU3">
         <v>0.07957186151623884</v>
       </c>
-      <c r="CT3">
+      <c r="CV3">
         <v>0.01148615299423432</v>
       </c>
-      <c r="CU3">
+      <c r="CW3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:99">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1582,7 +1606,7 @@
         <v>1272.453442007165</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0.07668491299714397</v>
@@ -1849,28 +1873,34 @@
         <v>0.2544504004029639</v>
       </c>
       <c r="CO4">
+        <v>0.526024972476467</v>
+      </c>
+      <c r="CP4">
+        <v>0.526024972476467</v>
+      </c>
+      <c r="CQ4">
         <v>0.054951196508504</v>
       </c>
-      <c r="CP4">
+      <c r="CR4">
         <v>0.2327166839143239</v>
       </c>
-      <c r="CQ4">
+      <c r="CS4">
         <v>0.1195835845033234</v>
       </c>
-      <c r="CR4">
+      <c r="CT4">
         <v>0.8054368616610621</v>
       </c>
-      <c r="CS4">
+      <c r="CU4">
         <v>0.1296964554860001</v>
       </c>
-      <c r="CT4">
+      <c r="CV4">
         <v>0.01504559783999614</v>
       </c>
-      <c r="CU4">
+      <c r="CW4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:99">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1881,7 +1911,7 @@
         <v>1305.686880528743</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>0.01567445593152786</v>
@@ -2148,28 +2178,34 @@
         <v>0.2635438530662409</v>
       </c>
       <c r="CO5">
+        <v>0.5252393507503761</v>
+      </c>
+      <c r="CP5">
+        <v>0.5252393507503761</v>
+      </c>
+      <c r="CQ5">
         <v>0.03836047508435547</v>
       </c>
-      <c r="CP5">
+      <c r="CR5">
         <v>0.2408578339134133</v>
       </c>
-      <c r="CQ5">
+      <c r="CS5">
         <v>0.1086326222001996</v>
       </c>
-      <c r="CR5">
+      <c r="CT5">
         <v>0.7755075004580184</v>
       </c>
-      <c r="CS5">
+      <c r="CU5">
         <v>0.0912029845510345</v>
       </c>
-      <c r="CT5">
+      <c r="CV5">
         <v>0.01270632604870283</v>
       </c>
-      <c r="CU5">
+      <c r="CW5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:99">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2180,7 +2216,7 @@
         <v>1252.876983428592</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>0.004506918161850199</v>
@@ -2447,24 +2483,30 @@
         <v>0.253683579899901</v>
       </c>
       <c r="CO6">
+        <v>0.4388745461934804</v>
+      </c>
+      <c r="CP6">
+        <v>0.4388745461934804</v>
+      </c>
+      <c r="CQ6">
         <v>0.0303346569974067</v>
       </c>
-      <c r="CP6">
+      <c r="CR6">
         <v>0.2278558410643445</v>
       </c>
-      <c r="CQ6">
+      <c r="CS6">
         <v>0.1102635921495497</v>
       </c>
-      <c r="CR6">
+      <c r="CT6">
         <v>0.8005114743994316</v>
       </c>
-      <c r="CS6">
+      <c r="CU6">
         <v>0.07619903013648092</v>
       </c>
-      <c r="CT6">
+      <c r="CV6">
         <v>0.009733218967184942</v>
       </c>
-      <c r="CU6">
+      <c r="CW6">
         <v>0</v>
       </c>
     </row>
